--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value566.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value566.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5209254185508762</v>
+        <v>0.9833462238311768</v>
       </c>
       <c r="B1">
-        <v>1.456670489933852</v>
+        <v>1.31148886680603</v>
       </c>
       <c r="C1">
-        <v>2.925250202908761</v>
+        <v>2.134623289108276</v>
       </c>
       <c r="D1">
-        <v>2.836221522620464</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.255746796720576</v>
+        <v>2.086764574050903</v>
       </c>
     </row>
   </sheetData>
